--- a/tabular/eve/parvovirinae/epv-dependo-side-data-ncbi.xlsx
+++ b/tabular/eve/parvovirinae/epv-dependo-side-data-ncbi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A111B2-5D4B-D242-9D96-77622243C6B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0665D-F6F9-2743-B2AF-6A9CAB495C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{8B9AD57D-8CCD-1646-8BC8-E3C5CE85EAE5}"/>
   </bookViews>
@@ -992,7 +992,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1048576"/>
+      <selection activeCell="E15" sqref="A1:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
